--- a/REGULAR/PICNIC GROVE/VILLANUEVA, PABLO.xlsx
+++ b/REGULAR/PICNIC GROVE/VILLANUEVA, PABLO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
   <si>
     <t>PERIOD</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>UT(0-0-54)</t>
+  </si>
+  <si>
+    <t>12/4-8/2023</t>
   </si>
 </sst>
 </file>
@@ -1380,9 +1383,9 @@
   <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,7 +1548,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>58.166000000000011</v>
+        <v>55.666000000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1555,7 +1558,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3530,13 +3533,15 @@
         <v>45170</v>
       </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
@@ -3548,13 +3553,15 @@
         <v>45200</v>
       </c>
       <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
@@ -3565,9 +3572,13 @@
       <c r="A101" s="40">
         <v>45231</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
+      <c r="D101" s="39">
+        <v>5</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
@@ -3577,7 +3588,9 @@
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="20" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
